--- a/hardware/Structure/BOM/Structure BOM.xlsx
+++ b/hardware/Structure/BOM/Structure BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Desktop\Uni\5th year\Semester 2\Project\GitHub Folder\WeirWeather-AWS\hardware\Structure\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9936A83F-A3F6-4287-9350-2BEB19797E80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFD3D7F-1BAD-411F-BB2E-E058714AB994}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="19065" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19065" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BillOfMaterials" sheetId="2" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
   <si>
     <t>WeirWeather Weather Station</t>
   </si>
@@ -374,6 +372,9 @@
   </si>
   <si>
     <t>Solar Panel Lower Mount</t>
+  </si>
+  <si>
+    <t>£155.52</t>
   </si>
 </sst>
 </file>
@@ -695,7 +696,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -858,6 +859,7 @@
     <xf numFmtId="169" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3620,8 +3622,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3733,7 +3735,9 @@
       <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>124</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3747,7 +3751,9 @@
       <c r="B8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="62" t="s">
+        <v>100</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4490,6 +4496,9 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="D8" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId4"/>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
